--- a/hebrewOutputs/hebrew82Comperation_2_Common_alpha=0.34.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_2_Common_alpha=0.34.xlsx
@@ -49,6 +49,9 @@
     <t>גב' רונן</t>
   </si>
   <si>
+    <t>trans</t>
+  </si>
+  <si>
     <t>יעל.</t>
   </si>
   <si>
@@ -62,9 +65,6 @@
   </si>
   <si>
     <t>כן, יואב.</t>
-  </si>
-  <si>
-    <t>trans</t>
   </si>
   <si>
     <t>כן.</t>
@@ -779,7 +779,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -801,13 +801,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -815,10 +815,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -829,10 +829,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -1129,7 +1129,7 @@
         <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -1213,7 +1213,7 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -1255,7 +1255,7 @@
         <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -1266,7 +1266,7 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
@@ -1451,7 +1451,7 @@
         <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
@@ -1479,7 +1479,7 @@
         <v>20</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -1504,7 +1504,7 @@
         <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
@@ -1560,10 +1560,10 @@
         <v>75</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -1571,10 +1571,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
@@ -1602,7 +1602,7 @@
         <v>77</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
         <v>44</v>
@@ -1647,7 +1647,7 @@
         <v>44</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -1728,7 +1728,7 @@
         <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
@@ -1742,7 +1742,7 @@
         <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
@@ -1773,7 +1773,7 @@
         <v>18</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
@@ -1871,7 +1871,7 @@
         <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
@@ -1924,10 +1924,10 @@
         <v>101</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
@@ -1941,7 +1941,7 @@
         <v>65</v>
       </c>
       <c r="C87" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D87" t="s">
         <v>9</v>
@@ -1955,7 +1955,7 @@
         <v>18</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -1963,10 +1963,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C89" t="s">
         <v>6</v>
@@ -1980,10 +1980,10 @@
         <v>104</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D90" t="s">
         <v>7</v>
@@ -2092,7 +2092,7 @@
         <v>112</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
         <v>6</v>
@@ -2148,7 +2148,7 @@
         <v>117</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C102" t="s">
         <v>6</v>
@@ -2235,7 +2235,7 @@
         <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D108" t="s">
         <v>9</v>
@@ -2249,7 +2249,7 @@
         <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
@@ -2263,7 +2263,7 @@
         <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D110" t="s">
         <v>9</v>
